--- a/trunk/Tools/Exchange rates.xlsx
+++ b/trunk/Tools/Exchange rates.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>dollar</t>
   </si>
@@ -35,12 +35,24 @@
   <si>
     <t>To</t>
   </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +74,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +106,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,23 +135,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,110 +502,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <f>1/C6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <f>1/D6</f>
+        <v>3.0030030030030028</v>
+      </c>
+      <c r="C8" s="5">
         <v>3.0030000000000001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <f>1/E6</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <f>1/E7</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <f>1/E8</f>
+        <v>0.66577896138482029</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="C16" s="5">
         <v>3.0030000000000001</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
         <v>1.502</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
+      <c r="B17" s="5">
+        <f>1/E14</f>
+        <v>1.9011406844106462</v>
+      </c>
+      <c r="C17" s="5">
+        <f>1/E15</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <f>1/E16</f>
+        <v>0.66577896138482029</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <f>1/C22</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5">
+        <f>1/D22</f>
+        <v>3.0030030030030028</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5">
+        <f>1/E22</f>
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <f>1/E23</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <f>1/E24</f>
+        <v>0.66577896138482029</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -536,7 +823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
